--- a/src/test/resources/data/Input Data.xlsx
+++ b/src/test/resources/data/Input Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1665" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="3765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:L6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Hai hello how r u</t>
   </si>
@@ -139,6 +140,30 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -187,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -197,6 +222,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,4 +878,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>111000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>